--- a/results/I3_N5_M3_T15_C150_DepCentral_s0_P5_res.xlsx
+++ b/results/I3_N5_M3_T15_C150_DepCentral_s0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.548553868778</v>
+        <v>342.3977085871632</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.45855457449484</v>
+        <v>18.39770858716315</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.8372574275573794</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.8372574275573794</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>569.1399992942831</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.95</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -824,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7.091900992101005</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>10.97824889212231</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>12.37739353073907</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.89414115881186</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.94108823397055</v>
+        <v>14.16274257244262</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.31509138547906</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.83692585281499</v>
+        <v>14.49989205841819</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.77834566152793</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1027,76 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>64.12500000000065</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>69.98000000000064</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>68.84500000000065</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>70.99000000000066</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>70.99000000000065</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>122.0650000000008</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.7150000000008</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>125.2100000000008</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>122.6300000000008</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999935</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>172.6400000000006</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>166.9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>175.4900000000006</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>174.7350000000007</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>171.4800000000007</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>176.7649999999991</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>179.8599999999992</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>191.55</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>181.9549999999991</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>193.1949999999991</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>172.6400000000006</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>166.9</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>175.4900000000006</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>174.7350000000007</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>171.4800000000007</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>111.4</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>122.0650000000008</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>116.7150000000008</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>125.2100000000008</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>122.6300000000008</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>176.7649999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>179.8599999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>191.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>181.9549999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>193.1949999999991</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>22.64000000000064</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>16.9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>25.49000000000063</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1707,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>24.73499989509583</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>21.48000000000067</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -1659,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>26.76499999999913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>29.85999989509583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>41.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>31.95499992370605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>43.1949999332428</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1761,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1772,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1783,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1794,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2028,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2066,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2077,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2088,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2099,67 +2224,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
